--- a/kekorea/codebase/extcore/loadFromFiles/막종 엑셀 정리.xlsx
+++ b/kekorea/codebase/extcore/loadFromFiles/막종 엑셀 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kokusaielectric.sharepoint.com/sites/122/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60eebabad7dad888/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="616" documentId="8_{672BAADB-CC99-449B-8AA0-FBF5FF527C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EF8259D-5800-4F2D-91B8-177D93BB3BB4}"/>
+  <xr:revisionPtr revIDLastSave="619" documentId="8_{672BAADB-CC99-449B-8AA0-FBF5FF527C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21DB3EDE-19A4-4BBD-B3EE-3DE092C44106}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="워크시트 익스포트" sheetId="1" r:id="rId1"/>
@@ -19,27 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$B$312</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'워크시트 익스포트'!$A$1:$D$312</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'워크시트 익스포트'!$A$1:$D$306</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="338">
   <si>
     <t>막종</t>
   </si>
@@ -1024,9 +1011,6 @@
   </si>
   <si>
     <t>dd</t>
-  </si>
-  <si>
-    <t>테스트용</t>
   </si>
   <si>
     <t>-</t>
@@ -1067,7 +1051,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1077,14 +1061,14 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1202,7 +1186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1501,11 +1485,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J312"/>
+  <dimension ref="A1:J306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -1522,7 +1506,7 @@
     <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.75">
+    <row r="1" spans="1:10" ht="28.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1593,7 +1577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1607,7 +1591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1621,7 +1605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1635,7 +1619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="16.5">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1649,7 +1633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1663,7 +1647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1677,7 +1661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1691,7 +1675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1705,7 +1689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1719,7 +1703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="16.5">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1733,7 +1717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="16.5">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1747,7 +1731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1761,7 +1745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="16.5">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1775,7 +1759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="16.5">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1789,7 +1773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="16.5">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1803,7 +1787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="16.5">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1817,7 +1801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="16.5">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1831,7 +1815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="16.5">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -1845,7 +1829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="16.5">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1859,7 +1843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="16.5">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -1873,7 +1857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="16.5">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -1887,7 +1871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="16.5">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -1901,7 +1885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="16.5">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -1915,7 +1899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="16.5">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1927,7 +1911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="16.5">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -1941,7 +1925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="16.5">
       <c r="A30" s="2" t="s">
         <v>44</v>
       </c>
@@ -1955,7 +1939,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="16.5">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
@@ -1969,7 +1953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" ht="16.5">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
@@ -1981,7 +1965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="16.5">
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
@@ -1995,7 +1979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="16.5">
       <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
@@ -2009,7 +1993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="16.5">
       <c r="A35" s="2" t="s">
         <v>49</v>
       </c>
@@ -2023,7 +2007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="16.5">
       <c r="A36" s="2" t="s">
         <v>50</v>
       </c>
@@ -2037,7 +2021,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" ht="16.5">
       <c r="A37" s="2" t="s">
         <v>51</v>
       </c>
@@ -2051,7 +2035,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" ht="16.5">
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
@@ -2065,7 +2049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="16.5">
       <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
@@ -2079,7 +2063,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="16.5">
       <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
@@ -2093,7 +2077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="16.5">
       <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
@@ -2107,7 +2091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="16.5">
       <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
@@ -2121,7 +2105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" ht="16.5">
       <c r="A43" s="2" t="s">
         <v>58</v>
       </c>
@@ -2135,7 +2119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" ht="16.5">
       <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
@@ -2149,7 +2133,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="16.5">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -2163,7 +2147,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="16.5">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
@@ -2177,7 +2161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="16.5">
       <c r="A47" s="2" t="s">
         <v>61</v>
       </c>
@@ -2191,7 +2175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" ht="16.5">
       <c r="A48" s="2" t="s">
         <v>63</v>
       </c>
@@ -2205,7 +2189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" ht="16.5">
       <c r="A49" s="2" t="s">
         <v>64</v>
       </c>
@@ -2219,7 +2203,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" ht="16.5">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -2233,7 +2217,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" ht="16.5">
       <c r="A51" s="2" t="s">
         <v>67</v>
       </c>
@@ -2247,7 +2231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" ht="16.5">
       <c r="A52" s="2" t="s">
         <v>68</v>
       </c>
@@ -2261,7 +2245,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" ht="16.5">
       <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
@@ -2275,7 +2259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" ht="16.5">
       <c r="A54" s="2" t="s">
         <v>69</v>
       </c>
@@ -2289,7 +2273,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="16.5">
       <c r="A55" s="2" t="s">
         <v>70</v>
       </c>
@@ -2303,7 +2287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" ht="16.5">
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
@@ -2317,7 +2301,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" ht="16.5">
       <c r="A57" s="2" t="s">
         <v>72</v>
       </c>
@@ -2331,7 +2315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" ht="16.5">
       <c r="A58" s="2" t="s">
         <v>73</v>
       </c>
@@ -2345,7 +2329,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" ht="16.5">
       <c r="A59" s="2" t="s">
         <v>74</v>
       </c>
@@ -2359,7 +2343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" ht="16.5">
       <c r="A60" s="2" t="s">
         <v>75</v>
       </c>
@@ -2373,7 +2357,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" ht="16.5">
       <c r="A61" s="2" t="s">
         <v>76</v>
       </c>
@@ -2387,7 +2371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" ht="16.5">
       <c r="A62" s="2" t="s">
         <v>77</v>
       </c>
@@ -2401,7 +2385,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" ht="16.5">
       <c r="A63" s="2" t="s">
         <v>78</v>
       </c>
@@ -2415,7 +2399,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" ht="16.5">
       <c r="A64" s="2" t="s">
         <v>79</v>
       </c>
@@ -2429,7 +2413,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" ht="16.5">
       <c r="A65" s="2" t="s">
         <v>80</v>
       </c>
@@ -2443,7 +2427,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" ht="16.5">
       <c r="A66" s="2" t="s">
         <v>81</v>
       </c>
@@ -2457,7 +2441,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" ht="16.5">
       <c r="A67" s="2" t="s">
         <v>83</v>
       </c>
@@ -2471,7 +2455,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" ht="16.5">
       <c r="A68" s="2" t="s">
         <v>84</v>
       </c>
@@ -2485,7 +2469,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" ht="16.5">
       <c r="A69" s="2" t="s">
         <v>85</v>
       </c>
@@ -2499,7 +2483,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" ht="16.5">
       <c r="A70" s="2" t="s">
         <v>86</v>
       </c>
@@ -2513,7 +2497,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" ht="16.5">
       <c r="A71" s="2" t="s">
         <v>87</v>
       </c>
@@ -2527,7 +2511,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" ht="16.5">
       <c r="A72" s="2" t="s">
         <v>88</v>
       </c>
@@ -2541,7 +2525,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" ht="16.5">
       <c r="A73" s="2" t="s">
         <v>89</v>
       </c>
@@ -2555,7 +2539,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" ht="16.5">
       <c r="A74" s="2" t="s">
         <v>90</v>
       </c>
@@ -2569,7 +2553,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" ht="16.5">
       <c r="A75" s="2" t="s">
         <v>92</v>
       </c>
@@ -2583,7 +2567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" ht="16.5">
       <c r="A76" s="2" t="s">
         <v>91</v>
       </c>
@@ -2597,7 +2581,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" ht="16.5">
       <c r="A77" s="2" t="s">
         <v>93</v>
       </c>
@@ -2611,7 +2595,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" ht="16.5">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -2625,7 +2609,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" ht="16.5">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -2639,7 +2623,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" ht="16.5">
       <c r="A80" s="2" t="s">
         <v>97</v>
       </c>
@@ -2653,7 +2637,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="16.5">
       <c r="A81" s="2" t="s">
         <v>98</v>
       </c>
@@ -2667,7 +2651,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" ht="16.5">
       <c r="A82" s="2" t="s">
         <v>99</v>
       </c>
@@ -2681,7 +2665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" ht="16.5">
       <c r="A83" s="2" t="s">
         <v>100</v>
       </c>
@@ -2695,7 +2679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" ht="16.5">
       <c r="A84" s="2" t="s">
         <v>101</v>
       </c>
@@ -2709,7 +2693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" ht="16.5">
       <c r="A85" s="2" t="s">
         <v>102</v>
       </c>
@@ -2723,7 +2707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" ht="16.5">
       <c r="A86" s="2" t="s">
         <v>103</v>
       </c>
@@ -2737,7 +2721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" ht="16.5">
       <c r="A87" s="2" t="s">
         <v>104</v>
       </c>
@@ -2751,7 +2735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" ht="16.5">
       <c r="A88" s="2" t="s">
         <v>105</v>
       </c>
@@ -2765,7 +2749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" ht="16.5">
       <c r="A89" s="2" t="s">
         <v>106</v>
       </c>
@@ -2779,7 +2763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" ht="16.5">
       <c r="A90" s="2" t="s">
         <v>107</v>
       </c>
@@ -2793,7 +2777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="16.5">
       <c r="A91" s="2" t="s">
         <v>108</v>
       </c>
@@ -2807,7 +2791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" ht="16.5">
       <c r="A92" s="2" t="s">
         <v>109</v>
       </c>
@@ -2821,7 +2805,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" ht="16.5">
       <c r="A93" s="2" t="s">
         <v>110</v>
       </c>
@@ -2835,7 +2819,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" ht="16.5">
       <c r="A94" s="2" t="s">
         <v>111</v>
       </c>
@@ -2849,7 +2833,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" ht="16.5">
       <c r="A95" s="2" t="s">
         <v>112</v>
       </c>
@@ -2863,7 +2847,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" ht="16.5">
       <c r="A96" s="2" t="s">
         <v>113</v>
       </c>
@@ -2877,7 +2861,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" ht="16.5">
       <c r="A97" s="2" t="s">
         <v>114</v>
       </c>
@@ -2891,7 +2875,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="16.5">
       <c r="A98" s="2" t="s">
         <v>115</v>
       </c>
@@ -2905,7 +2889,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="16.5">
       <c r="A99" s="2" t="s">
         <v>116</v>
       </c>
@@ -2919,7 +2903,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" ht="16.5">
       <c r="A100" s="2" t="s">
         <v>117</v>
       </c>
@@ -2933,7 +2917,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" ht="16.5">
       <c r="A101" s="2" t="s">
         <v>118</v>
       </c>
@@ -2947,7 +2931,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" ht="16.5">
       <c r="A102" s="2" t="s">
         <v>119</v>
       </c>
@@ -2961,7 +2945,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" ht="16.5">
       <c r="A103" s="2" t="s">
         <v>120</v>
       </c>
@@ -2975,7 +2959,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" ht="16.5">
       <c r="A104" s="2" t="s">
         <v>121</v>
       </c>
@@ -2989,7 +2973,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" ht="16.5">
       <c r="A105" s="2" t="s">
         <v>123</v>
       </c>
@@ -3003,7 +2987,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" ht="16.5">
       <c r="A106" s="2" t="s">
         <v>125</v>
       </c>
@@ -3017,7 +3001,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" ht="16.5">
       <c r="A107" s="2" t="s">
         <v>126</v>
       </c>
@@ -3031,7 +3015,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" ht="16.5">
       <c r="A108" s="2" t="s">
         <v>124</v>
       </c>
@@ -3045,7 +3029,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" ht="16.5">
       <c r="A109" s="2" t="s">
         <v>127</v>
       </c>
@@ -3059,7 +3043,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="16.5">
       <c r="A110" s="2" t="s">
         <v>128</v>
       </c>
@@ -3073,7 +3057,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" ht="16.5">
       <c r="A111" s="2" t="s">
         <v>122</v>
       </c>
@@ -3087,7 +3071,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" ht="16.5">
       <c r="A112" s="2" t="s">
         <v>129</v>
       </c>
@@ -3101,7 +3085,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" ht="16.5">
       <c r="A113" s="2" t="s">
         <v>130</v>
       </c>
@@ -3115,7 +3099,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" ht="16.5">
       <c r="A114" s="2" t="s">
         <v>131</v>
       </c>
@@ -3129,7 +3113,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" ht="16.5">
       <c r="A115" s="2" t="s">
         <v>132</v>
       </c>
@@ -3143,7 +3127,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" ht="16.5">
       <c r="A116" s="2" t="s">
         <v>133</v>
       </c>
@@ -3157,7 +3141,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" ht="16.5">
       <c r="A117" s="2" t="s">
         <v>134</v>
       </c>
@@ -3171,7 +3155,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" ht="16.5">
       <c r="A118" s="2" t="s">
         <v>62</v>
       </c>
@@ -3185,7 +3169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" ht="16.5">
       <c r="A119" s="2" t="s">
         <v>135</v>
       </c>
@@ -3199,7 +3183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" ht="16.5">
       <c r="A120" s="2" t="s">
         <v>136</v>
       </c>
@@ -3213,7 +3197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" ht="16.5">
       <c r="A121" s="2" t="s">
         <v>137</v>
       </c>
@@ -3227,7 +3211,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" ht="16.5">
       <c r="A122" s="2" t="s">
         <v>14</v>
       </c>
@@ -3241,7 +3225,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" ht="16.5">
       <c r="A123" s="2" t="s">
         <v>138</v>
       </c>
@@ -3255,7 +3239,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" ht="16.5">
       <c r="A124" s="2" t="s">
         <v>139</v>
       </c>
@@ -3269,7 +3253,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" ht="16.5">
       <c r="A125" s="2" t="s">
         <v>140</v>
       </c>
@@ -3283,7 +3267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" ht="16.5">
       <c r="A126" s="2" t="s">
         <v>141</v>
       </c>
@@ -3297,7 +3281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" ht="16.5">
       <c r="A127" s="2" t="s">
         <v>142</v>
       </c>
@@ -3311,7 +3295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" ht="16.5">
       <c r="A128" s="2" t="s">
         <v>143</v>
       </c>
@@ -3325,7 +3309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" ht="16.5">
       <c r="A129" s="2" t="s">
         <v>144</v>
       </c>
@@ -3339,7 +3323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" ht="16.5">
       <c r="A130" s="2" t="s">
         <v>145</v>
       </c>
@@ -3353,7 +3337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" ht="16.5">
       <c r="A131" s="2" t="s">
         <v>146</v>
       </c>
@@ -3367,7 +3351,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" ht="16.5">
       <c r="A132" s="2" t="s">
         <v>147</v>
       </c>
@@ -3381,7 +3365,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" ht="16.5">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -3395,7 +3379,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" ht="16.5">
       <c r="A134" s="2" t="s">
         <v>149</v>
       </c>
@@ -3409,7 +3393,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" ht="16.5">
       <c r="A135" s="2" t="s">
         <v>150</v>
       </c>
@@ -3423,7 +3407,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" ht="16.5">
       <c r="A136" s="2" t="s">
         <v>151</v>
       </c>
@@ -3437,7 +3421,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" ht="16.5">
       <c r="A137" s="2" t="s">
         <v>152</v>
       </c>
@@ -3451,7 +3435,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" ht="16.5">
       <c r="A138" s="2" t="s">
         <v>153</v>
       </c>
@@ -3465,7 +3449,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" ht="16.5">
       <c r="A139" s="2" t="s">
         <v>154</v>
       </c>
@@ -3479,7 +3463,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" ht="16.5">
       <c r="A140" s="2" t="s">
         <v>155</v>
       </c>
@@ -3493,7 +3477,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" ht="16.5">
       <c r="A141" s="2" t="s">
         <v>156</v>
       </c>
@@ -3507,7 +3491,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" ht="16.5">
       <c r="A142" s="2" t="s">
         <v>157</v>
       </c>
@@ -3521,7 +3505,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" ht="16.5">
       <c r="A143" s="2" t="s">
         <v>158</v>
       </c>
@@ -3535,7 +3519,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" ht="16.5">
       <c r="A144" s="2" t="s">
         <v>159</v>
       </c>
@@ -3549,7 +3533,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" ht="16.5">
       <c r="A145" s="2" t="s">
         <v>160</v>
       </c>
@@ -3563,7 +3547,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" ht="16.5">
       <c r="A146" s="2" t="s">
         <v>161</v>
       </c>
@@ -3577,7 +3561,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" ht="16.5">
       <c r="A147" s="2" t="s">
         <v>162</v>
       </c>
@@ -3591,7 +3575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" ht="16.5">
       <c r="A148" s="2" t="s">
         <v>163</v>
       </c>
@@ -3605,7 +3589,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" ht="16.5">
       <c r="A149" s="2" t="s">
         <v>164</v>
       </c>
@@ -3619,7 +3603,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" ht="16.5">
       <c r="A150" s="2" t="s">
         <v>165</v>
       </c>
@@ -3633,7 +3617,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" ht="16.5">
       <c r="A151" s="2" t="s">
         <v>167</v>
       </c>
@@ -3647,7 +3631,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" ht="16.5">
       <c r="A152" s="2" t="s">
         <v>166</v>
       </c>
@@ -3661,7 +3645,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" ht="16.5">
       <c r="A153" s="2" t="s">
         <v>168</v>
       </c>
@@ -3675,7 +3659,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" ht="16.5">
       <c r="A154" s="2" t="s">
         <v>169</v>
       </c>
@@ -3689,7 +3673,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" ht="16.5">
       <c r="A155" s="2" t="s">
         <v>171</v>
       </c>
@@ -3703,7 +3687,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" ht="16.5">
       <c r="A156" s="2" t="s">
         <v>172</v>
       </c>
@@ -3717,7 +3701,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" ht="16.5">
       <c r="A157" s="2" t="s">
         <v>173</v>
       </c>
@@ -3731,7 +3715,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" ht="16.5">
       <c r="A158" s="2" t="s">
         <v>174</v>
       </c>
@@ -3745,7 +3729,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" ht="16.5">
       <c r="A159" s="2" t="s">
         <v>175</v>
       </c>
@@ -3759,7 +3743,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" ht="16.5">
       <c r="A160" s="2" t="s">
         <v>176</v>
       </c>
@@ -3773,7 +3757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" ht="16.5">
       <c r="A161" s="2" t="s">
         <v>177</v>
       </c>
@@ -3787,7 +3771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" ht="16.5">
       <c r="A162" s="2" t="s">
         <v>178</v>
       </c>
@@ -3801,7 +3785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" ht="16.5">
       <c r="A163" s="2" t="s">
         <v>179</v>
       </c>
@@ -3815,7 +3799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" ht="16.5">
       <c r="A164" s="2" t="s">
         <v>180</v>
       </c>
@@ -3829,7 +3813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" ht="16.5">
       <c r="A165" s="2" t="s">
         <v>181</v>
       </c>
@@ -3843,7 +3827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" ht="16.5">
       <c r="A166" s="2" t="s">
         <v>182</v>
       </c>
@@ -3857,7 +3841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" ht="16.5">
       <c r="A167" s="2" t="s">
         <v>183</v>
       </c>
@@ -3871,7 +3855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" ht="16.5">
       <c r="A168" s="2" t="s">
         <v>184</v>
       </c>
@@ -3885,7 +3869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" ht="16.5">
       <c r="A169" s="2" t="s">
         <v>185</v>
       </c>
@@ -3899,7 +3883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" ht="16.5">
       <c r="A170" s="2" t="s">
         <v>186</v>
       </c>
@@ -3913,7 +3897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" ht="16.5">
       <c r="A171" s="2" t="s">
         <v>187</v>
       </c>
@@ -3927,7 +3911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" ht="16.5">
       <c r="A172" s="2" t="s">
         <v>188</v>
       </c>
@@ -3941,7 +3925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" ht="16.5">
       <c r="A173" s="2" t="s">
         <v>189</v>
       </c>
@@ -3955,7 +3939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" ht="16.5">
       <c r="A174" s="2" t="s">
         <v>190</v>
       </c>
@@ -3969,7 +3953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" ht="16.5">
       <c r="A175" s="2" t="s">
         <v>191</v>
       </c>
@@ -3983,7 +3967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" ht="16.5">
       <c r="A176" s="2" t="s">
         <v>192</v>
       </c>
@@ -3997,7 +3981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" ht="16.5">
       <c r="A177" s="2" t="s">
         <v>193</v>
       </c>
@@ -4011,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" ht="16.5">
       <c r="A178" s="2" t="s">
         <v>194</v>
       </c>
@@ -4025,7 +4009,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" ht="16.5">
       <c r="A179" s="2" t="s">
         <v>196</v>
       </c>
@@ -4039,7 +4023,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" ht="16.5">
       <c r="A180" s="2" t="s">
         <v>197</v>
       </c>
@@ -4053,7 +4037,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" ht="16.5">
       <c r="A181" s="2" t="s">
         <v>199</v>
       </c>
@@ -4067,7 +4051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" ht="16.5">
       <c r="A182" s="2" t="s">
         <v>7</v>
       </c>
@@ -4081,7 +4065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" ht="16.5">
       <c r="A183" s="2" t="s">
         <v>200</v>
       </c>
@@ -4095,7 +4079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" ht="16.5">
       <c r="A184" s="2" t="s">
         <v>201</v>
       </c>
@@ -4109,7 +4093,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" ht="16.5">
       <c r="A185" s="2" t="s">
         <v>203</v>
       </c>
@@ -4123,7 +4107,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" ht="16.5">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -4137,7 +4121,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" ht="16.5">
       <c r="A187" s="2" t="s">
         <v>206</v>
       </c>
@@ -4151,7 +4135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" ht="16.5">
       <c r="A188" s="2" t="s">
         <v>22</v>
       </c>
@@ -4165,7 +4149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" ht="16.5">
       <c r="A189" s="2" t="s">
         <v>207</v>
       </c>
@@ -4179,7 +4163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" ht="16.5">
       <c r="A190" s="2" t="s">
         <v>208</v>
       </c>
@@ -4193,7 +4177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" ht="16.5">
       <c r="A191" s="2" t="s">
         <v>43</v>
       </c>
@@ -4207,7 +4191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" ht="16.5">
       <c r="A192" s="2" t="s">
         <v>209</v>
       </c>
@@ -4221,7 +4205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" ht="16.5">
       <c r="A193" s="2" t="s">
         <v>210</v>
       </c>
@@ -4235,7 +4219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" ht="16.5">
       <c r="A194" s="2" t="s">
         <v>211</v>
       </c>
@@ -4249,7 +4233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" ht="16.5">
       <c r="A195" s="2" t="s">
         <v>212</v>
       </c>
@@ -4263,7 +4247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" ht="16.5">
       <c r="A196" s="2" t="s">
         <v>213</v>
       </c>
@@ -4277,7 +4261,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" ht="16.5">
       <c r="A197" s="2" t="s">
         <v>214</v>
       </c>
@@ -4291,7 +4275,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" ht="16.5">
       <c r="A198" s="2" t="s">
         <v>215</v>
       </c>
@@ -4305,7 +4289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" ht="16.5">
       <c r="A199" s="2" t="s">
         <v>216</v>
       </c>
@@ -4319,7 +4303,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" ht="16.5">
       <c r="A200" s="2" t="s">
         <v>217</v>
       </c>
@@ -4333,7 +4317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" ht="16.5">
       <c r="A201" s="2" t="s">
         <v>218</v>
       </c>
@@ -4347,7 +4331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" ht="16.5">
       <c r="A202" s="2" t="s">
         <v>219</v>
       </c>
@@ -4361,7 +4345,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" ht="16.5">
       <c r="A203" s="2" t="s">
         <v>220</v>
       </c>
@@ -4375,7 +4359,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" ht="16.5">
       <c r="A204" s="2" t="s">
         <v>221</v>
       </c>
@@ -4389,7 +4373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" ht="16.5">
       <c r="A205" s="2" t="s">
         <v>222</v>
       </c>
@@ -4403,7 +4387,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" ht="16.5">
       <c r="A206" s="2" t="s">
         <v>223</v>
       </c>
@@ -4417,7 +4401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" ht="16.5">
       <c r="A207" s="2" t="s">
         <v>224</v>
       </c>
@@ -4431,7 +4415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" ht="16.5">
       <c r="A208" s="2" t="s">
         <v>225</v>
       </c>
@@ -4445,7 +4429,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" ht="16.5">
       <c r="A209" s="2" t="s">
         <v>226</v>
       </c>
@@ -4459,7 +4443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" ht="16.5">
       <c r="A210" s="2" t="s">
         <v>227</v>
       </c>
@@ -4473,7 +4457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" ht="16.5">
       <c r="A211" s="2" t="s">
         <v>228</v>
       </c>
@@ -4487,7 +4471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" ht="16.5">
       <c r="A212" s="2" t="s">
         <v>229</v>
       </c>
@@ -4501,7 +4485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" ht="16.5">
       <c r="A213" s="2" t="s">
         <v>230</v>
       </c>
@@ -4515,7 +4499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" ht="16.5">
       <c r="A214" s="2" t="s">
         <v>231</v>
       </c>
@@ -4529,7 +4513,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" ht="16.5">
       <c r="A215" s="2" t="s">
         <v>232</v>
       </c>
@@ -4543,7 +4527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" ht="16.5">
       <c r="A216" s="2" t="s">
         <v>233</v>
       </c>
@@ -4557,7 +4541,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" ht="16.5">
       <c r="A217" s="2" t="s">
         <v>234</v>
       </c>
@@ -4571,7 +4555,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" ht="16.5">
       <c r="A218" s="2" t="s">
         <v>235</v>
       </c>
@@ -4585,7 +4569,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" ht="16.5">
       <c r="A219" s="2" t="s">
         <v>236</v>
       </c>
@@ -4599,7 +4583,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" ht="16.5">
       <c r="A220" s="2" t="s">
         <v>237</v>
       </c>
@@ -4613,7 +4597,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" ht="16.5">
       <c r="A221" s="2" t="s">
         <v>238</v>
       </c>
@@ -4627,7 +4611,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" ht="16.5">
       <c r="A222" s="2" t="s">
         <v>239</v>
       </c>
@@ -4641,7 +4625,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" ht="16.5">
       <c r="A223" s="2" t="s">
         <v>240</v>
       </c>
@@ -4655,7 +4639,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" ht="16.5">
       <c r="A224" s="2" t="s">
         <v>242</v>
       </c>
@@ -4669,7 +4653,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" ht="16.5">
       <c r="A225" s="2" t="s">
         <v>243</v>
       </c>
@@ -4683,7 +4667,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" ht="16.5">
       <c r="A226" s="2" t="s">
         <v>244</v>
       </c>
@@ -4697,7 +4681,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" ht="16.5">
       <c r="A227" s="2" t="s">
         <v>241</v>
       </c>
@@ -4711,7 +4695,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" ht="16.5">
       <c r="A228" s="2" t="s">
         <v>245</v>
       </c>
@@ -4725,7 +4709,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" ht="16.5">
       <c r="A229" s="2" t="s">
         <v>246</v>
       </c>
@@ -4739,7 +4723,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" ht="16.5">
       <c r="A230" s="2" t="s">
         <v>247</v>
       </c>
@@ -4753,7 +4737,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" ht="16.5">
       <c r="A231" s="2" t="s">
         <v>248</v>
       </c>
@@ -4767,7 +4751,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" ht="16.5">
       <c r="A232" s="2" t="s">
         <v>94</v>
       </c>
@@ -4781,7 +4765,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" ht="16.5">
       <c r="A233" s="2" t="s">
         <v>250</v>
       </c>
@@ -4795,7 +4779,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" ht="16.5">
       <c r="A234" s="2" t="s">
         <v>251</v>
       </c>
@@ -4809,7 +4793,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" ht="16.5">
       <c r="A235" s="2" t="s">
         <v>253</v>
       </c>
@@ -4823,7 +4807,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" ht="16.5">
       <c r="A236" s="2" t="s">
         <v>254</v>
       </c>
@@ -4837,7 +4821,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" ht="16.5">
       <c r="A237" s="2" t="s">
         <v>255</v>
       </c>
@@ -4851,7 +4835,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" ht="16.5">
       <c r="A238" s="2" t="s">
         <v>257</v>
       </c>
@@ -4865,7 +4849,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" ht="16.5">
       <c r="A239" s="2" t="s">
         <v>259</v>
       </c>
@@ -4879,7 +4863,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" ht="16.5">
       <c r="A240" s="2" t="s">
         <v>260</v>
       </c>
@@ -4893,7 +4877,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" ht="16.5">
       <c r="A241" s="2" t="s">
         <v>258</v>
       </c>
@@ -4907,7 +4891,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" ht="16.5">
       <c r="A242" s="2" t="s">
         <v>261</v>
       </c>
@@ -4921,7 +4905,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" ht="16.5">
       <c r="A243" s="2" t="s">
         <v>262</v>
       </c>
@@ -4935,7 +4919,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" ht="16.5">
       <c r="A244" s="2" t="s">
         <v>263</v>
       </c>
@@ -4949,7 +4933,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" ht="16.5">
       <c r="A245" s="2" t="s">
         <v>264</v>
       </c>
@@ -4963,7 +4947,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" ht="16.5">
       <c r="A246" s="2" t="s">
         <v>265</v>
       </c>
@@ -4977,7 +4961,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" ht="16.5">
       <c r="A247" s="2" t="s">
         <v>266</v>
       </c>
@@ -4991,7 +4975,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" ht="16.5">
       <c r="A248" s="2" t="s">
         <v>267</v>
       </c>
@@ -5005,7 +4989,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" ht="16.5">
       <c r="A249" s="2" t="s">
         <v>268</v>
       </c>
@@ -5019,7 +5003,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" ht="16.5">
       <c r="A250" s="2" t="s">
         <v>270</v>
       </c>
@@ -5033,7 +5017,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" ht="16.5">
       <c r="A251" s="2" t="s">
         <v>271</v>
       </c>
@@ -5047,7 +5031,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" ht="16.5">
       <c r="A252" s="2" t="s">
         <v>272</v>
       </c>
@@ -5061,7 +5045,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" ht="16.5">
       <c r="A253" s="2" t="s">
         <v>273</v>
       </c>
@@ -5075,7 +5059,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" ht="16.5">
       <c r="A254" s="2" t="s">
         <v>274</v>
       </c>
@@ -5089,7 +5073,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" ht="16.5">
       <c r="A255" s="2" t="s">
         <v>275</v>
       </c>
@@ -5103,7 +5087,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" ht="16.5">
       <c r="A256" s="2" t="s">
         <v>277</v>
       </c>
@@ -5117,7 +5101,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" ht="16.5">
       <c r="A257" s="2" t="s">
         <v>279</v>
       </c>
@@ -5131,7 +5115,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" ht="16.5">
       <c r="A258" s="2" t="s">
         <v>278</v>
       </c>
@@ -5145,7 +5129,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" ht="16.5">
       <c r="A259" s="2" t="s">
         <v>280</v>
       </c>
@@ -5159,7 +5143,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" ht="16.5">
       <c r="A260" s="2" t="s">
         <v>282</v>
       </c>
@@ -5173,7 +5157,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" ht="16.5">
       <c r="A261" s="2" t="s">
         <v>281</v>
       </c>
@@ -5187,7 +5171,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" ht="16.5">
       <c r="A262" s="2" t="s">
         <v>283</v>
       </c>
@@ -5201,7 +5185,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" ht="16.5">
       <c r="A263" s="2" t="s">
         <v>284</v>
       </c>
@@ -5215,7 +5199,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" ht="16.5">
       <c r="A264" s="2" t="s">
         <v>285</v>
       </c>
@@ -5229,7 +5213,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" ht="16.5">
       <c r="A265" s="2" t="s">
         <v>286</v>
       </c>
@@ -5243,7 +5227,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" ht="16.5">
       <c r="A266" s="2" t="s">
         <v>287</v>
       </c>
@@ -5257,7 +5241,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" ht="16.5">
       <c r="A267" s="2" t="s">
         <v>288</v>
       </c>
@@ -5271,7 +5255,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" ht="16.5">
       <c r="A268" s="2" t="s">
         <v>289</v>
       </c>
@@ -5285,7 +5269,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" ht="16.5">
       <c r="A269" s="2" t="s">
         <v>290</v>
       </c>
@@ -5299,7 +5283,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" ht="16.5">
       <c r="A270" s="2" t="s">
         <v>291</v>
       </c>
@@ -5313,7 +5297,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" ht="16.5">
       <c r="A271" s="2" t="s">
         <v>292</v>
       </c>
@@ -5327,7 +5311,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" ht="16.5">
       <c r="A272" s="2" t="s">
         <v>293</v>
       </c>
@@ -5341,7 +5325,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" ht="16.5">
       <c r="A273" s="2" t="s">
         <v>294</v>
       </c>
@@ -5355,7 +5339,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" ht="16.5">
       <c r="A274" s="2" t="s">
         <v>295</v>
       </c>
@@ -5369,7 +5353,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" ht="16.5">
       <c r="A275" s="2" t="s">
         <v>296</v>
       </c>
@@ -5383,7 +5367,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" ht="16.5">
       <c r="A276" s="2" t="s">
         <v>297</v>
       </c>
@@ -5397,7 +5381,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" ht="16.5">
       <c r="A277" s="2" t="s">
         <v>298</v>
       </c>
@@ -5411,7 +5395,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" ht="16.5">
       <c r="A278" s="2" t="s">
         <v>299</v>
       </c>
@@ -5425,7 +5409,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" ht="16.5">
       <c r="A279" s="2" t="s">
         <v>300</v>
       </c>
@@ -5439,7 +5423,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" ht="16.5">
       <c r="A280" s="2" t="s">
         <v>301</v>
       </c>
@@ -5453,7 +5437,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" ht="16.5">
       <c r="A281" s="2" t="s">
         <v>302</v>
       </c>
@@ -5467,7 +5451,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" ht="16.5">
       <c r="A282" s="2" t="s">
         <v>303</v>
       </c>
@@ -5481,7 +5465,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" ht="16.5">
       <c r="A283" s="2" t="s">
         <v>304</v>
       </c>
@@ -5495,7 +5479,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" ht="16.5">
       <c r="A284" s="2" t="s">
         <v>305</v>
       </c>
@@ -5509,7 +5493,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" ht="16.5">
       <c r="A285" s="2" t="s">
         <v>306</v>
       </c>
@@ -5537,7 +5521,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" ht="16.5">
       <c r="A287" s="2" t="s">
         <v>308</v>
       </c>
@@ -5551,7 +5535,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" ht="16.5">
       <c r="A288" s="2" t="s">
         <v>309</v>
       </c>
@@ -5565,7 +5549,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" ht="16.5">
       <c r="A289" s="2" t="s">
         <v>310</v>
       </c>
@@ -5579,7 +5563,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" ht="16.5">
       <c r="A290" s="2" t="s">
         <v>311</v>
       </c>
@@ -5593,7 +5577,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" ht="16.5">
       <c r="A291" s="2" t="s">
         <v>312</v>
       </c>
@@ -5607,7 +5591,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" ht="16.5">
       <c r="A292" s="2" t="s">
         <v>313</v>
       </c>
@@ -5621,7 +5605,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" ht="16.5">
       <c r="A293" s="2" t="s">
         <v>314</v>
       </c>
@@ -5635,7 +5619,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" ht="16.5">
       <c r="A294" s="2" t="s">
         <v>315</v>
       </c>
@@ -5649,7 +5633,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" ht="16.5">
       <c r="A295" s="2" t="s">
         <v>316</v>
       </c>
@@ -5663,7 +5647,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" ht="16.5">
       <c r="A296" s="2" t="s">
         <v>317</v>
       </c>
@@ -5677,7 +5661,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" ht="16.5">
       <c r="A297" s="2" t="s">
         <v>318</v>
       </c>
@@ -5691,7 +5675,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" ht="16.5">
       <c r="A298" s="2" t="s">
         <v>320</v>
       </c>
@@ -5705,7 +5689,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" ht="16.5">
       <c r="A299" s="2" t="s">
         <v>319</v>
       </c>
@@ -5719,7 +5703,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" ht="16.5">
       <c r="A300" s="2" t="s">
         <v>321</v>
       </c>
@@ -5733,7 +5717,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" ht="16.5">
       <c r="A301" s="2" t="s">
         <v>322</v>
       </c>
@@ -5747,7 +5731,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" ht="16.5">
       <c r="A302" s="2" t="s">
         <v>323</v>
       </c>
@@ -5761,7 +5745,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" ht="16.5">
       <c r="A303" s="2" t="s">
         <v>325</v>
       </c>
@@ -5775,7 +5759,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" ht="16.5">
       <c r="A304" s="2" t="s">
         <v>326</v>
       </c>
@@ -5789,106 +5773,34 @@
         <v>324</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" ht="16.5">
       <c r="A305" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B305" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C305" s="5"/>
       <c r="D305" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="20.25" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B306" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C306" s="5"/>
       <c r="D306" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B307" s="3">
-        <v>1</v>
-      </c>
-      <c r="C307" s="5"/>
-      <c r="D307" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B308" s="3">
-        <v>1</v>
-      </c>
-      <c r="C308" s="5"/>
-      <c r="D308" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B309" s="3">
-        <v>1</v>
-      </c>
-      <c r="C309" s="5"/>
-      <c r="D309" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B310" s="3">
-        <v>1</v>
-      </c>
-      <c r="C310" s="5"/>
-      <c r="D310" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B311" s="3">
-        <v>1</v>
-      </c>
-      <c r="C311" s="5"/>
-      <c r="D311" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A312" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B312" s="3">
-        <v>1</v>
-      </c>
-      <c r="C312" s="5"/>
-      <c r="D312" s="5" t="s">
-        <v>335</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D312" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D312">
-      <sortCondition ref="D1:D312"/>
+  <autoFilter ref="A1:D306" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D306">
+      <sortCondition ref="D1:D306"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5904,7 +5816,7 @@
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
@@ -5912,21 +5824,21 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>238</v>
       </c>
@@ -5934,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>326</v>
       </c>
@@ -5942,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5950,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>304</v>
       </c>
@@ -5958,15 +5870,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -5974,7 +5886,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5982,7 +5894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -5990,7 +5902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -5998,7 +5910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -6006,7 +5918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -6014,7 +5926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -6022,7 +5934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -6030,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>178</v>
       </c>
@@ -6038,7 +5950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -6046,7 +5958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -6054,7 +5966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>313</v>
       </c>
@@ -6062,7 +5974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -6070,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -6078,15 +5990,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -6094,7 +6006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6102,7 +6014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6110,7 +6022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -6118,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6126,7 +6038,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6134,7 +6046,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -6142,7 +6054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -6150,7 +6062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -6158,7 +6070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -6166,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -6174,7 +6086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -6182,7 +6094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -6190,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -6198,7 +6110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -6206,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>314</v>
       </c>
@@ -6214,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>176</v>
       </c>
@@ -6222,7 +6134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -6230,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -6238,7 +6150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -6246,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -6254,7 +6166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -6262,7 +6174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -6270,7 +6182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -6278,7 +6190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -6286,7 +6198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -6294,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -6302,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.25">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>300</v>
       </c>
@@ -6310,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.25">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -6318,7 +6230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.25">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>301</v>
       </c>
@@ -6326,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -6334,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.25">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -6342,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>289</v>
       </c>
@@ -6350,7 +6262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.25">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -6358,7 +6270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.25">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -6366,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.25">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -6374,7 +6286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.25">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>327</v>
       </c>
@@ -6382,15 +6294,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.25">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.25">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>177</v>
       </c>
@@ -6398,7 +6310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.25">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -6406,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.25">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>315</v>
       </c>
@@ -6414,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="14.25">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>225</v>
       </c>
@@ -6422,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>224</v>
       </c>
@@ -6430,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -6438,7 +6350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -6446,7 +6358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>277</v>
       </c>
@@ -6454,15 +6366,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.25">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.25">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -6470,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.25">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -6478,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="14.25">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -6486,7 +6398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.25">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -6494,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="14.25">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>65</v>
       </c>
@@ -6502,7 +6414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="14.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -6510,7 +6422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14.25">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -6518,7 +6430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="14.25">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -6526,7 +6438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.25">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -6534,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.25">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>69</v>
       </c>
@@ -6542,7 +6454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.25">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -6550,7 +6462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="14.25">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>72</v>
       </c>
@@ -6558,7 +6470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="14.25">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -6566,7 +6478,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.25">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>73</v>
       </c>
@@ -6574,7 +6486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="14.25">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -6582,7 +6494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="14.25">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -6590,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="14.25">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>71</v>
       </c>
@@ -6598,7 +6510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14.25">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -6606,7 +6518,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="14.25">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -6614,7 +6526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="14.25">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -6622,7 +6534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="14.25">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>28</v>
       </c>
@@ -6630,7 +6542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="14.25">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>30</v>
       </c>
@@ -6638,7 +6550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="14.25">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>246</v>
       </c>
@@ -6646,7 +6558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="14.25">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>245</v>
       </c>
@@ -6654,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="14.25">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>242</v>
       </c>
@@ -6662,7 +6574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="14.25">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>240</v>
       </c>
@@ -6670,7 +6582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="14.25">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>244</v>
       </c>
@@ -6678,7 +6590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="14.25">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>232</v>
       </c>
@@ -6686,7 +6598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="14.25">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -6694,7 +6606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="14.25">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -6702,7 +6614,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="14.25">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>196</v>
       </c>
@@ -6710,7 +6622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="14.25">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>206</v>
       </c>
@@ -6718,7 +6630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="14.25">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>140</v>
       </c>
@@ -6726,7 +6638,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="14.25">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>143</v>
       </c>
@@ -6734,7 +6646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="14.25">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>141</v>
       </c>
@@ -6742,7 +6654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="14.25">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>144</v>
       </c>
@@ -6750,7 +6662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="14.25">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>142</v>
       </c>
@@ -6758,7 +6670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="14.25">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>184</v>
       </c>
@@ -6766,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="14.25">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>199</v>
       </c>
@@ -6774,7 +6686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="14.25">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>200</v>
       </c>
@@ -6782,7 +6694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="14.25">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>201</v>
       </c>
@@ -6790,7 +6702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="14.25">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>84</v>
       </c>
@@ -6798,7 +6710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="14.25">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -6806,7 +6718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="14.25">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>93</v>
       </c>
@@ -6814,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.25">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -6822,7 +6734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="14.25">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -6830,7 +6742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.25">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -6838,7 +6750,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.25">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>91</v>
       </c>
@@ -6846,7 +6758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="14.25">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>92</v>
       </c>
@@ -6854,7 +6766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="14.25">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>90</v>
       </c>
@@ -6862,7 +6774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="14.25">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>94</v>
       </c>
@@ -6870,7 +6782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="14.25">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -6878,7 +6790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="14.25">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>95</v>
       </c>
@@ -6886,7 +6798,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="14.25">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>97</v>
       </c>
@@ -6894,7 +6806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="14.25">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>100</v>
       </c>
@@ -6902,7 +6814,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="14.25">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>101</v>
       </c>
@@ -6910,7 +6822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="14.25">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>103</v>
       </c>
@@ -6918,7 +6830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="14.25">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>107</v>
       </c>
@@ -6926,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="14.25">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>109</v>
       </c>
@@ -6934,7 +6846,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="14.25">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>120</v>
       </c>
@@ -6942,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="14.25">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>113</v>
       </c>
@@ -6950,7 +6862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="14.25">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>111</v>
       </c>
@@ -6958,7 +6870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="14.25">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>115</v>
       </c>
@@ -6966,7 +6878,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="14.25">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>117</v>
       </c>
@@ -6974,7 +6886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="14.25">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>116</v>
       </c>
@@ -6982,7 +6894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="14.25">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>119</v>
       </c>
@@ -6990,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="14.25">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>122</v>
       </c>
@@ -6998,7 +6910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="14.25">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>118</v>
       </c>
@@ -7006,7 +6918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="14.25">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>128</v>
       </c>
@@ -7014,7 +6926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="14.25">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>123</v>
       </c>
@@ -7022,7 +6934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="14.25">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>126</v>
       </c>
@@ -7030,7 +6942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="14.25">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>124</v>
       </c>
@@ -7038,7 +6950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="14.25">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>270</v>
       </c>
@@ -7046,7 +6958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="14.25">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>273</v>
       </c>
@@ -7054,7 +6966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="14.25">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>320</v>
       </c>
@@ -7062,7 +6974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="14.25">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>280</v>
       </c>
@@ -7070,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="14.25">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>130</v>
       </c>
@@ -7078,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="14.25">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>307</v>
       </c>
@@ -7086,7 +6998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="14.25">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>306</v>
       </c>
@@ -7094,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="14.25">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>325</v>
       </c>
@@ -7102,7 +7014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="14.25">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>171</v>
       </c>
@@ -7110,7 +7022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="14.25">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>175</v>
       </c>
@@ -7118,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="14.25">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -7126,7 +7038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="14.25">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -7134,7 +7046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="14.25">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>131</v>
       </c>
@@ -7142,7 +7054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="14.25">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>132</v>
       </c>
@@ -7150,7 +7062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="14.25">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>133</v>
       </c>
@@ -7158,7 +7070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="14.25">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>134</v>
       </c>
@@ -7166,7 +7078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="14.25">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>99</v>
       </c>
@@ -7174,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="14.25">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>77</v>
       </c>
@@ -7182,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="14.25">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>62</v>
       </c>
@@ -7190,7 +7102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="14.25">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>136</v>
       </c>
@@ -7198,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="14.25">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>138</v>
       </c>
@@ -7206,7 +7118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="14.25">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>139</v>
       </c>
@@ -7214,7 +7126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="14.25">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>251</v>
       </c>
@@ -7222,7 +7134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="14.25">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>145</v>
       </c>
@@ -7230,7 +7142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="14.25">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>147</v>
       </c>
@@ -7238,7 +7150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="14.25">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>150</v>
       </c>
@@ -7246,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="14.25">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>317</v>
       </c>
@@ -7254,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="14.25">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>152</v>
       </c>
@@ -7262,7 +7174,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="14.25">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>160</v>
       </c>
@@ -7270,7 +7182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="14.25">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>125</v>
       </c>
@@ -7278,7 +7190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="14.25">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>151</v>
       </c>
@@ -7286,7 +7198,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="14.25">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>156</v>
       </c>
@@ -7294,7 +7206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="14.25">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>163</v>
       </c>
@@ -7302,7 +7214,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="14.25">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>114</v>
       </c>
@@ -7310,7 +7222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="14.25">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>167</v>
       </c>
@@ -7318,7 +7230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="14.25">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>165</v>
       </c>
@@ -7326,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="14.25">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>166</v>
       </c>
@@ -7334,7 +7246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="14.25">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>153</v>
       </c>
@@ -7342,7 +7254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="14.25">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>127</v>
       </c>
@@ -7350,7 +7262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="14.25">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>155</v>
       </c>
@@ -7358,7 +7270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="14.25">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>158</v>
       </c>
@@ -7366,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="14.25">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>157</v>
       </c>
@@ -7374,7 +7286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="14.25">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>168</v>
       </c>
@@ -7382,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="14.25">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>174</v>
       </c>
@@ -7390,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="14.25">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>193</v>
       </c>
@@ -7398,7 +7310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="14.25">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>197</v>
       </c>
@@ -7406,7 +7318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="14.25">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>34</v>
       </c>
@@ -7414,7 +7326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="14.25">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>37</v>
       </c>
@@ -7422,7 +7334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="14.25">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -7430,7 +7342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="14.25">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -7438,7 +7350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="14.25">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>221</v>
       </c>
@@ -7446,7 +7358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="14.25">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>227</v>
       </c>
@@ -7454,7 +7366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="14.25">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>108</v>
       </c>
@@ -7462,7 +7374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="14.25">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>203</v>
       </c>
@@ -7470,7 +7382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="14.25">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>205</v>
       </c>
@@ -7478,7 +7390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="14.25">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>135</v>
       </c>
@@ -7486,7 +7398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="14.25">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -7494,7 +7406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="14.25">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>208</v>
       </c>
@@ -7502,7 +7414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="14.25">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>43</v>
       </c>
@@ -7510,7 +7422,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="14.25">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>219</v>
       </c>
@@ -7518,7 +7430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="14.25">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>239</v>
       </c>
@@ -7526,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="14.25">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>230</v>
       </c>
@@ -7534,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="14.25">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>222</v>
       </c>
@@ -7542,7 +7454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="14.25">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -7550,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="14.25">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>243</v>
       </c>
@@ -7558,7 +7470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="14.25">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -7566,7 +7478,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="14.25">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>213</v>
       </c>
@@ -7574,7 +7486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="14.25">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>234</v>
       </c>
@@ -7582,7 +7494,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="14.25">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>237</v>
       </c>
@@ -7590,7 +7502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="14.25">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>241</v>
       </c>
@@ -7598,7 +7510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="14.25">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>247</v>
       </c>
@@ -7606,7 +7518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="14.25">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>250</v>
       </c>
@@ -7614,7 +7526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="14.25">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>253</v>
       </c>
@@ -7622,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="14.25">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -7630,7 +7542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="14.25">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>210</v>
       </c>
@@ -7638,7 +7550,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="14.25">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -7646,7 +7558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="14.25">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -7654,7 +7566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="14.25">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>229</v>
       </c>
@@ -7662,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="14.25">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>211</v>
       </c>
@@ -7670,7 +7582,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="14.25">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>254</v>
       </c>
@@ -7678,7 +7590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="14.25">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>255</v>
       </c>
@@ -7686,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="14.25">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>259</v>
       </c>
@@ -7694,7 +7606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="14.25">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>258</v>
       </c>
@@ -7702,7 +7614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="14.25">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>261</v>
       </c>
@@ -7710,7 +7622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="14.25">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>257</v>
       </c>
@@ -7718,7 +7630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="14.25">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>265</v>
       </c>
@@ -7726,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="14.25">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>267</v>
       </c>
@@ -7734,7 +7646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="14.25">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>236</v>
       </c>
@@ -7742,7 +7654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="14.25">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -7750,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="14.25">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>26</v>
       </c>
@@ -7758,7 +7670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="14.25">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -7766,7 +7678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="14.25">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>32</v>
       </c>
@@ -7774,23 +7686,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="14.25">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B234" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="14.25">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B235" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="14.25">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>268</v>
       </c>
@@ -7798,7 +7710,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="14.25">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>274</v>
       </c>
@@ -7806,7 +7718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="14.25">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>275</v>
       </c>
@@ -7814,7 +7726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="14.25">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>272</v>
       </c>
@@ -7822,7 +7734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="14.25">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>278</v>
       </c>
@@ -7830,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="14.25">
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>279</v>
       </c>
@@ -7838,7 +7750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="14.25">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>281</v>
       </c>
@@ -7846,7 +7758,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="14.25">
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>292</v>
       </c>
@@ -7854,7 +7766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="14.25">
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>303</v>
       </c>
@@ -7862,7 +7774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="14.25">
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>309</v>
       </c>
@@ -7870,7 +7782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="14.25">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>154</v>
       </c>
@@ -7878,7 +7790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="14.25">
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>286</v>
       </c>
@@ -7886,7 +7798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="14.25">
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>148</v>
       </c>
@@ -7894,7 +7806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="14.25">
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>284</v>
       </c>
@@ -7902,7 +7814,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="14.25">
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>299</v>
       </c>
@@ -7910,7 +7822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="14.25">
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>282</v>
       </c>
@@ -7918,7 +7830,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="14.25">
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>290</v>
       </c>
@@ -7926,7 +7838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="14.25">
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>302</v>
       </c>
@@ -7934,7 +7846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="14.25">
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>287</v>
       </c>
@@ -7942,7 +7854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="14.25">
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>285</v>
       </c>
@@ -7950,7 +7862,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="14.25">
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>305</v>
       </c>
@@ -7958,7 +7870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="14.25">
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>310</v>
       </c>
@@ -7966,7 +7878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="14.25">
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>311</v>
       </c>
@@ -7974,7 +7886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="14.25">
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>283</v>
       </c>
@@ -7982,7 +7894,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="14.25">
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>293</v>
       </c>
@@ -7990,7 +7902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="14.25">
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>288</v>
       </c>
@@ -7998,7 +7910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="14.25">
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>291</v>
       </c>
@@ -8006,7 +7918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="14.25">
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>296</v>
       </c>
@@ -8014,7 +7926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="14.25">
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>308</v>
       </c>
@@ -8022,7 +7934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="14.25">
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>104</v>
       </c>
@@ -8030,7 +7942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="14.25">
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>159</v>
       </c>
@@ -8038,7 +7950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="14.25">
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>298</v>
       </c>
@@ -8046,7 +7958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="14.25">
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>169</v>
       </c>
@@ -8054,7 +7966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="14.25">
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>129</v>
       </c>
@@ -8062,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="14.25">
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>319</v>
       </c>
@@ -8070,7 +7982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="14.25">
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>318</v>
       </c>
@@ -8078,7 +7990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="14.25">
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>207</v>
       </c>
@@ -8086,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="14.25">
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>13</v>
       </c>
@@ -8094,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="14.25">
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -8102,7 +8014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="14.25">
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>85</v>
       </c>
@@ -8110,7 +8022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="14.25">
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>183</v>
       </c>
@@ -8118,7 +8030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="14.25">
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>316</v>
       </c>
@@ -8126,7 +8038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="14.25">
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>161</v>
       </c>
@@ -8134,7 +8046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="14.25">
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>223</v>
       </c>
@@ -8142,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="14.25">
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>321</v>
       </c>
@@ -8150,7 +8062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="14.25">
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>294</v>
       </c>
@@ -8158,7 +8070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="14.25">
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>312</v>
       </c>
@@ -8166,7 +8078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="14.25">
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>297</v>
       </c>
@@ -8174,7 +8086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="14.25">
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>263</v>
       </c>
@@ -8182,7 +8094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="14.25">
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>260</v>
       </c>
@@ -8190,7 +8102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="14.25">
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>322</v>
       </c>
@@ -8198,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="14.25">
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>295</v>
       </c>
@@ -8206,7 +8118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="14.25">
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>271</v>
       </c>
@@ -8214,7 +8126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="14.25">
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>323</v>
       </c>
@@ -8222,7 +8134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="14.25">
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>266</v>
       </c>
@@ -8230,7 +8142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="14.25">
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>181</v>
       </c>
@@ -8238,7 +8150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="14.25">
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>188</v>
       </c>
@@ -8246,7 +8158,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="14.25">
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>186</v>
       </c>
@@ -8254,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="14.25">
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>180</v>
       </c>
@@ -8262,7 +8174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="14.25">
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>192</v>
       </c>
@@ -8270,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="14.25">
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>187</v>
       </c>
@@ -8278,7 +8190,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="14.25">
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>190</v>
       </c>
@@ -8286,7 +8198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="14.25">
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>189</v>
       </c>
@@ -8294,7 +8206,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="14.25">
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>182</v>
       </c>
@@ -8302,7 +8214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="14.25">
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>179</v>
       </c>
@@ -8310,7 +8222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="14.25">
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>191</v>
       </c>
@@ -8318,7 +8230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="14.25">
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
         <v>98</v>
       </c>
@@ -8326,7 +8238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="14.25">
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>215</v>
       </c>
@@ -8334,7 +8246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="14.25">
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>89</v>
       </c>
@@ -8342,7 +8254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="14.25">
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>220</v>
       </c>
@@ -8350,7 +8262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="14.25">
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>217</v>
       </c>
@@ -8358,7 +8270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="14.25">
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>212</v>
       </c>
@@ -8366,7 +8278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="14.25">
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>228</v>
       </c>
@@ -8374,7 +8286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="14.25">
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>235</v>
       </c>
@@ -8382,7 +8294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="14.25">
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>248</v>
       </c>
@@ -8390,7 +8302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="14.25">
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>262</v>
       </c>
@@ -8398,7 +8310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="14.25">
+    <row r="312" spans="1:2">
       <c r="A312" t="s">
         <v>264</v>
       </c>
@@ -8423,11 +8335,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -8447,12 +8359,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004CDBCB888B6CD84597F9975F8DE63D32" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="24e570641c84c3a571f1f2f91f98b23e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e3b9d7ae-5b0d-45fc-972d-1b02d0539a01" xmlns:ns3="b2ac8607-e231-4e30-aa4e-4439e8317af9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8580a51bbd4adaf5408830a9c665548e" ns2:_="" ns3:_="">
     <xsd:import namespace="e3b9d7ae-5b0d-45fc-972d-1b02d0539a01"/>
@@ -8617,14 +8523,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FECCA2-1CAA-43DF-8537-30A457112C44}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FECCA2-1CAA-43DF-8537-30A457112C44}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE689057-E7F7-4573-BE5F-B27B987E8638}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98EEC837-8405-4904-85B2-3BE769D3C631}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e3b9d7ae-5b0d-45fc-972d-1b02d0539a01"/>
+    <ds:schemaRef ds:uri="b2ac8607-e231-4e30-aa4e-4439e8317af9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98EEC837-8405-4904-85B2-3BE769D3C631}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE689057-E7F7-4573-BE5F-B27B987E8638}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>